--- a/HIGHFIVE/Assets/Resources/Data/HIGHFIVE_Data.xlsx
+++ b/HIGHFIVE/Assets/Resources/Data/HIGHFIVE_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\TeamProject\Sparta06_TeamProject_HIGHFIVE\HIGHFIVE\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF76AC-0A82-4E3D-94BE-F5BEF3D711F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06E3E74-D15E-461B-A544-D7EBB79F80C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29775" yWindow="2325" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29775" yWindow="2325" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>job</t>
   </si>
@@ -400,10 +400,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>spd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>damage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -525,6 +521,14 @@
   </si>
   <si>
     <t>엘리트 몬스터 처치 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkSpd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -889,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -918,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -971,10 +975,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I2" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
@@ -1007,10 +1011,10 @@
         <v>4.5</v>
       </c>
       <c r="H3" s="1">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="I3" s="1">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
@@ -1043,10 +1047,10 @@
         <v>4.2</v>
       </c>
       <c r="H4" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I4" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -2098,22 +2102,22 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -2122,10 +2126,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2186,7 +2190,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>39</v>
@@ -2215,10 +2219,10 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
@@ -2247,10 +2251,10 @@
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>39</v>
@@ -3324,7 +3328,7 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5">
         <v>10</v>
@@ -3356,7 +3360,7 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5">
         <v>15</v>
@@ -3484,7 +3488,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5">
         <v>100</v>
@@ -5742,10 +5746,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5753,17 +5757,17 @@
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="35.21875" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="26" width="8.21875" customWidth="1"/>
-    <col min="27" max="1025" width="12" customWidth="1"/>
+    <col min="4" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="10" width="9.77734375" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="27" width="8.21875" customWidth="1"/>
+    <col min="28" max="1026" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -5777,25 +5781,28 @@
         <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1">
+    <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -5809,13 +5816,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
         <v>0.1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>180</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -5823,11 +5830,14 @@
       <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" t="b">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -5844,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>45</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -5855,11 +5865,14 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" t="b">
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -5876,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>45</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -5887,16 +5900,19 @@
       <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" t="b">
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -5908,10 +5924,10 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>60</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
@@ -5919,16 +5935,19 @@
       <c r="I5" s="5">
         <v>0</v>
       </c>
-      <c r="J5" t="b">
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -5940,27 +5959,30 @@
         <v>0</v>
       </c>
       <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" t="b">
+      <c r="J6" s="5">
         <v>0</v>
       </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -5972,27 +5994,30 @@
         <v>2</v>
       </c>
       <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>6</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>10</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="J7" t="b">
+      <c r="K7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -6004,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
@@ -6015,18 +6040,21 @@
       <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" t="b">
+      <c r="J8" s="5">
         <v>0</v>
       </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1"/>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1"/>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1"/>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:11" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -7033,15 +7061,15 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>3</v>
@@ -7171,7 +7199,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8">
